--- a/Docs/tela/cores conexoes.xlsx
+++ b/Docs/tela/cores conexoes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\choppbot\Docs\tela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0613EB2-4F25-4127-BF9B-7CFBF257AB3C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BB3DE7-CE52-4196-B4E2-B185CF8D1CEA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8790" windowHeight="6525" xr2:uid="{D7141424-8346-4F96-8D07-84F981760692}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="tela" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>JP 5</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>scl</t>
+  </si>
+  <si>
+    <t>ref fisica</t>
   </si>
 </sst>
 </file>
@@ -110,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -210,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +228,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -228,22 +255,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACDAA10-CFD5-4725-B7D6-47AD3FC43961}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P8"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,32 +602,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="6"/>
+      <c r="P1" s="12"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -617,203 +635,208 @@
       <c r="U1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="9"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="9"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="6"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="14">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="6">
         <v>3</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="14">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="6">
         <v>4</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="14">
         <v>6</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="9"/>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <v>5</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="9"/>
-      <c r="I6" s="7" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <v>6</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="I7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="6">
         <v>7</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="I8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="9"/>
+      <c r="I8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="12"/>
-      <c r="O8" s="10" t="s">
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="O8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="9" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/tela/cores conexoes.xlsx
+++ b/Docs/tela/cores conexoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\choppbot\Docs\tela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BB3DE7-CE52-4196-B4E2-B185CF8D1CEA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCE1052-0E4D-474A-90F9-AB692B07DA20}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8790" windowHeight="6525" xr2:uid="{D7141424-8346-4F96-8D07-84F981760692}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>JP 5</t>
   </si>
@@ -90,7 +90,16 @@
     <t>scl</t>
   </si>
   <si>
-    <t>ref fisica</t>
+    <t>miso</t>
+  </si>
+  <si>
+    <t>sck</t>
+  </si>
+  <si>
+    <t>vcc</t>
+  </si>
+  <si>
+    <t>mosi</t>
   </si>
 </sst>
 </file>
@@ -113,21 +122,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -211,6 +214,130 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -219,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,13 +382,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,274 +743,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACDAA10-CFD5-4725-B7D6-47AD3FC43961}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="5.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="2.85546875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="7.140625" style="1" customWidth="1"/>
-    <col min="17" max="21" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="2.85546875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.85546875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="7.140625" style="1" customWidth="1"/>
+    <col min="19" max="23" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="R1" s="12"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="6"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="6"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13">
+      <c r="C3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14">
+      <c r="F3" s="29">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="I3" s="6">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="6">
+      <c r="O3" s="6">
         <v>3</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="6">
+      <c r="R3" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="C4" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14">
+      <c r="F4" s="14">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="I4" s="6">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="6">
+      <c r="O4" s="6">
         <v>4</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="6">
+      <c r="R4" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="C5" s="22">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14">
+      <c r="F5" s="31">
         <v>6</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="K5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="O5" s="6">
         <v>5</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="6">
+      <c r="R5" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6"/>
+      <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="6">
+      <c r="O6" s="6">
         <v>6</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="4" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6"/>
+      <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="6">
+      <c r="O7" s="6">
         <v>7</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="I8" s="7" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
+      <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
-      <c r="O8" s="7" t="s">
+      <c r="N8" s="7"/>
+      <c r="O8" s="9"/>
+      <c r="Q8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="R8" s="9" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/tela/cores conexoes.xlsx
+++ b/Docs/tela/cores conexoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\choppbot\Docs\tela\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\MarSidFla\Docs\tela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCE1052-0E4D-474A-90F9-AB692B07DA20}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F268967-5D98-4D14-BDA0-B1ADCA6DF96E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8790" windowHeight="6525" xr2:uid="{D7141424-8346-4F96-8D07-84F981760692}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>JP 5</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>mosi</t>
+  </si>
+  <si>
+    <t>rx/bc</t>
   </si>
 </sst>
 </file>
@@ -373,15 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,6 +421,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -746,7 +749,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,34 +772,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="12"/>
+      <c r="O1" s="30"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="12"/>
+      <c r="R1" s="30"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -804,7 +807,7 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -822,22 +825,22 @@
       <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="26">
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -866,22 +869,22 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -910,22 +913,22 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="19">
         <v>3</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <v>6</v>
       </c>
       <c r="H5" s="4"/>
@@ -950,7 +953,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -978,7 +981,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1006,7 +1009,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1023,7 +1026,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="9"/>
       <c r="Q8" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>20</v>
